--- a/natmiOut/OldD2/LR-pairs_lrc2p/Liph-Lpar2.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Liph-Lpar2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,15 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -85,10 +94,10 @@
     <t>Lpar2</t>
   </si>
   <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -446,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.061328825620584</v>
+        <v>0.2227763333333333</v>
       </c>
       <c r="H2">
-        <v>0.061328825620584</v>
+        <v>0.668329</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.524218872864595</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.5526860717245076</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>1.74188037027183</v>
+        <v>0.2314755</v>
       </c>
       <c r="N2">
-        <v>1.74188037027183</v>
+        <v>0.462951</v>
       </c>
       <c r="O2">
-        <v>0.4396361891939162</v>
+        <v>0.04937823590113708</v>
       </c>
       <c r="P2">
-        <v>0.4396361891939162</v>
+        <v>0.0346719884939725</v>
       </c>
       <c r="Q2">
-        <v>0.1068274774803193</v>
+        <v>0.0515672631465</v>
       </c>
       <c r="R2">
-        <v>0.1068274774803193</v>
+        <v>0.309403578879</v>
       </c>
       <c r="S2">
-        <v>0.4396361891939162</v>
+        <v>0.02588500316813616</v>
       </c>
       <c r="T2">
-        <v>0.4396361891939162</v>
+        <v>0.01916272511961099</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.061328825620584</v>
+        <v>0.2227763333333333</v>
       </c>
       <c r="H3">
-        <v>0.061328825620584</v>
+        <v>0.668329</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.524218872864595</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.5526860717245076</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>1.74225378872576</v>
+        <v>0.1888533333333333</v>
       </c>
       <c r="N3">
-        <v>1.74225378872576</v>
+        <v>0.56656</v>
       </c>
       <c r="O3">
-        <v>0.4397304369211783</v>
+        <v>0.04028609699103969</v>
       </c>
       <c r="P3">
-        <v>0.4397304369211783</v>
+        <v>0.04243162192358383</v>
       </c>
       <c r="Q3">
-        <v>0.1068503787955639</v>
+        <v>0.04207205313777777</v>
       </c>
       <c r="R3">
-        <v>0.1068503787955639</v>
+        <v>0.3786484782399999</v>
       </c>
       <c r="S3">
-        <v>0.4397304369211783</v>
+        <v>0.02111873235675658</v>
       </c>
       <c r="T3">
-        <v>0.4397304369211783</v>
+        <v>0.02345136643784504</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +652,1363 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G4">
+        <v>0.2227763333333333</v>
+      </c>
+      <c r="H4">
+        <v>0.668329</v>
+      </c>
+      <c r="I4">
+        <v>0.524218872864595</v>
+      </c>
+      <c r="J4">
+        <v>0.5526860717245076</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1.865619666666667</v>
+      </c>
+      <c r="N4">
+        <v>5.596859</v>
+      </c>
+      <c r="O4">
+        <v>0.3979730381939661</v>
+      </c>
+      <c r="P4">
+        <v>0.4191679699371779</v>
+      </c>
+      <c r="Q4">
+        <v>0.4156159087345556</v>
+      </c>
+      <c r="R4">
+        <v>3.740543178611</v>
+      </c>
+      <c r="S4">
+        <v>0.2086249775125393</v>
+      </c>
+      <c r="T4">
+        <v>0.2316682986973153</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.2227763333333333</v>
+      </c>
+      <c r="H5">
+        <v>0.668329</v>
+      </c>
+      <c r="I5">
+        <v>0.524218872864595</v>
+      </c>
+      <c r="J5">
+        <v>0.5526860717245076</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1.768305</v>
+      </c>
+      <c r="N5">
+        <v>5.304914999999999</v>
+      </c>
+      <c r="O5">
+        <v>0.3772139230076625</v>
+      </c>
+      <c r="P5">
+        <v>0.397303282294459</v>
+      </c>
+      <c r="Q5">
+        <v>0.3939365041149999</v>
+      </c>
+      <c r="R5">
+        <v>3.545428537034999</v>
+      </c>
+      <c r="S5">
+        <v>0.197742657547909</v>
+      </c>
+      <c r="T5">
+        <v>0.2195839903745777</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
         <v>20</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>0.061328825620584</v>
-      </c>
-      <c r="H4">
-        <v>0.061328825620584</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>0.477960893881497</v>
-      </c>
-      <c r="N4">
-        <v>0.477960893881497</v>
-      </c>
-      <c r="O4">
-        <v>0.1206333738849054</v>
-      </c>
-      <c r="P4">
-        <v>0.1206333738849054</v>
-      </c>
-      <c r="Q4">
-        <v>0.02931278031431678</v>
-      </c>
-      <c r="R4">
-        <v>0.02931278031431678</v>
-      </c>
-      <c r="S4">
-        <v>0.1206333738849054</v>
-      </c>
-      <c r="T4">
-        <v>0.1206333738849054</v>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.2227763333333333</v>
+      </c>
+      <c r="H6">
+        <v>0.668329</v>
+      </c>
+      <c r="I6">
+        <v>0.524218872864595</v>
+      </c>
+      <c r="J6">
+        <v>0.5526860717245076</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>0.1539196666666667</v>
+      </c>
+      <c r="N6">
+        <v>0.461759</v>
+      </c>
+      <c r="O6">
+        <v>0.03283406498956068</v>
+      </c>
+      <c r="P6">
+        <v>0.03458271552494378</v>
+      </c>
+      <c r="Q6">
+        <v>0.03428965896788889</v>
+      </c>
+      <c r="R6">
+        <v>0.308606930711</v>
+      </c>
+      <c r="S6">
+        <v>0.01721223654039036</v>
+      </c>
+      <c r="T6">
+        <v>0.01911338519304732</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.2227763333333333</v>
+      </c>
+      <c r="H7">
+        <v>0.668329</v>
+      </c>
+      <c r="I7">
+        <v>0.524218872864595</v>
+      </c>
+      <c r="J7">
+        <v>0.5526860717245076</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.479631</v>
+      </c>
+      <c r="N7">
+        <v>0.9592620000000001</v>
+      </c>
+      <c r="O7">
+        <v>0.1023146409166339</v>
+      </c>
+      <c r="P7">
+        <v>0.0718424218258629</v>
+      </c>
+      <c r="Q7">
+        <v>0.106850435533</v>
+      </c>
+      <c r="R7">
+        <v>0.641102613198</v>
+      </c>
+      <c r="S7">
+        <v>0.05363526573886357</v>
+      </c>
+      <c r="T7">
+        <v>0.03970630590211119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.03121033333333334</v>
+      </c>
+      <c r="H8">
+        <v>0.09363100000000001</v>
+      </c>
+      <c r="I8">
+        <v>0.07344157934966895</v>
+      </c>
+      <c r="J8">
+        <v>0.07742975328264579</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.5</v>
+      </c>
+      <c r="M8">
+        <v>0.2314755</v>
+      </c>
+      <c r="N8">
+        <v>0.462951</v>
+      </c>
+      <c r="O8">
+        <v>0.04937823590113708</v>
+      </c>
+      <c r="P8">
+        <v>0.0346719884939725</v>
+      </c>
+      <c r="Q8">
+        <v>0.007224427513500001</v>
+      </c>
+      <c r="R8">
+        <v>0.043346565081</v>
+      </c>
+      <c r="S8">
+        <v>0.003626415630080031</v>
+      </c>
+      <c r="T8">
+        <v>0.002684643514907024</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.03121033333333334</v>
+      </c>
+      <c r="H9">
+        <v>0.09363100000000001</v>
+      </c>
+      <c r="I9">
+        <v>0.07344157934966895</v>
+      </c>
+      <c r="J9">
+        <v>0.07742975328264579</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.1888533333333333</v>
+      </c>
+      <c r="N9">
+        <v>0.56656</v>
+      </c>
+      <c r="O9">
+        <v>0.04028609699103969</v>
+      </c>
+      <c r="P9">
+        <v>0.04243162192358383</v>
+      </c>
+      <c r="Q9">
+        <v>0.005894175484444444</v>
+      </c>
+      <c r="R9">
+        <v>0.05304757936</v>
+      </c>
+      <c r="S9">
+        <v>0.002958674588855901</v>
+      </c>
+      <c r="T9">
+        <v>0.0032854700169256</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.03121033333333334</v>
+      </c>
+      <c r="H10">
+        <v>0.09363100000000001</v>
+      </c>
+      <c r="I10">
+        <v>0.07344157934966895</v>
+      </c>
+      <c r="J10">
+        <v>0.07742975328264579</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1.865619666666667</v>
+      </c>
+      <c r="N10">
+        <v>5.596859</v>
+      </c>
+      <c r="O10">
+        <v>0.3979730381939661</v>
+      </c>
+      <c r="P10">
+        <v>0.4191679699371779</v>
+      </c>
+      <c r="Q10">
+        <v>0.05822661166988889</v>
+      </c>
+      <c r="R10">
+        <v>0.5240395050290001</v>
+      </c>
+      <c r="S10">
+        <v>0.02922776846355099</v>
+      </c>
+      <c r="T10">
+        <v>0.03245607249622317</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.03121033333333334</v>
+      </c>
+      <c r="H11">
+        <v>0.09363100000000001</v>
+      </c>
+      <c r="I11">
+        <v>0.07344157934966895</v>
+      </c>
+      <c r="J11">
+        <v>0.07742975328264579</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1.768305</v>
+      </c>
+      <c r="N11">
+        <v>5.304914999999999</v>
+      </c>
+      <c r="O11">
+        <v>0.3772139230076625</v>
+      </c>
+      <c r="P11">
+        <v>0.397303282294459</v>
+      </c>
+      <c r="Q11">
+        <v>0.055189388485</v>
+      </c>
+      <c r="R11">
+        <v>0.496704496365</v>
+      </c>
+      <c r="S11">
+        <v>0.02770318625836717</v>
+      </c>
+      <c r="T11">
+        <v>0.03076309512644533</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.03121033333333334</v>
+      </c>
+      <c r="H12">
+        <v>0.09363100000000001</v>
+      </c>
+      <c r="I12">
+        <v>0.07344157934966895</v>
+      </c>
+      <c r="J12">
+        <v>0.07742975328264579</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.1539196666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.461759</v>
+      </c>
+      <c r="O12">
+        <v>0.03283406498956068</v>
+      </c>
+      <c r="P12">
+        <v>0.03458271552494378</v>
+      </c>
+      <c r="Q12">
+        <v>0.004803884103222223</v>
+      </c>
+      <c r="R12">
+        <v>0.04323495692900001</v>
+      </c>
+      <c r="S12">
+        <v>0.002411385589303008</v>
+      </c>
+      <c r="T12">
+        <v>0.002677731130940321</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.03121033333333334</v>
+      </c>
+      <c r="H13">
+        <v>0.09363100000000001</v>
+      </c>
+      <c r="I13">
+        <v>0.07344157934966895</v>
+      </c>
+      <c r="J13">
+        <v>0.07742975328264579</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.479631</v>
+      </c>
+      <c r="N13">
+        <v>0.9592620000000001</v>
+      </c>
+      <c r="O13">
+        <v>0.1023146409166339</v>
+      </c>
+      <c r="P13">
+        <v>0.0718424218258629</v>
+      </c>
+      <c r="Q13">
+        <v>0.014969443387</v>
+      </c>
+      <c r="R13">
+        <v>0.08981666032200002</v>
+      </c>
+      <c r="S13">
+        <v>0.007514148819511851</v>
+      </c>
+      <c r="T13">
+        <v>0.00556274099720433</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.105315</v>
+      </c>
+      <c r="H14">
+        <v>0.315945</v>
+      </c>
+      <c r="I14">
+        <v>0.2478185620962198</v>
+      </c>
+      <c r="J14">
+        <v>0.2612761094176664</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.5</v>
+      </c>
+      <c r="M14">
+        <v>0.2314755</v>
+      </c>
+      <c r="N14">
+        <v>0.462951</v>
+      </c>
+      <c r="O14">
+        <v>0.04937823590113708</v>
+      </c>
+      <c r="P14">
+        <v>0.0346719884939725</v>
+      </c>
+      <c r="Q14">
+        <v>0.0243778422825</v>
+      </c>
+      <c r="R14">
+        <v>0.146267053695</v>
+      </c>
+      <c r="S14">
+        <v>0.01223684341986773</v>
+      </c>
+      <c r="T14">
+        <v>0.00905896225947923</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.105315</v>
+      </c>
+      <c r="H15">
+        <v>0.315945</v>
+      </c>
+      <c r="I15">
+        <v>0.2478185620962198</v>
+      </c>
+      <c r="J15">
+        <v>0.2612761094176664</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.1888533333333333</v>
+      </c>
+      <c r="N15">
+        <v>0.56656</v>
+      </c>
+      <c r="O15">
+        <v>0.04028609699103969</v>
+      </c>
+      <c r="P15">
+        <v>0.04243162192358383</v>
+      </c>
+      <c r="Q15">
+        <v>0.0198890888</v>
+      </c>
+      <c r="R15">
+        <v>0.1790017992</v>
+      </c>
+      <c r="S15">
+        <v>0.009983642628788302</v>
+      </c>
+      <c r="T15">
+        <v>0.01108636909247534</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.105315</v>
+      </c>
+      <c r="H16">
+        <v>0.315945</v>
+      </c>
+      <c r="I16">
+        <v>0.2478185620962198</v>
+      </c>
+      <c r="J16">
+        <v>0.2612761094176664</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1.865619666666667</v>
+      </c>
+      <c r="N16">
+        <v>5.596859</v>
+      </c>
+      <c r="O16">
+        <v>0.3979730381939661</v>
+      </c>
+      <c r="P16">
+        <v>0.4191679699371779</v>
+      </c>
+      <c r="Q16">
+        <v>0.196477735195</v>
+      </c>
+      <c r="R16">
+        <v>1.768299616755</v>
+      </c>
+      <c r="S16">
+        <v>0.09862510607829263</v>
+      </c>
+      <c r="T16">
+        <v>0.1095185763776872</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.105315</v>
+      </c>
+      <c r="H17">
+        <v>0.315945</v>
+      </c>
+      <c r="I17">
+        <v>0.2478185620962198</v>
+      </c>
+      <c r="J17">
+        <v>0.2612761094176664</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.768305</v>
+      </c>
+      <c r="N17">
+        <v>5.304914999999999</v>
+      </c>
+      <c r="O17">
+        <v>0.3772139230076625</v>
+      </c>
+      <c r="P17">
+        <v>0.397303282294459</v>
+      </c>
+      <c r="Q17">
+        <v>0.186229041075</v>
+      </c>
+      <c r="R17">
+        <v>1.676061369675</v>
+      </c>
+      <c r="S17">
+        <v>0.09348061200243309</v>
+      </c>
+      <c r="T17">
+        <v>0.1038058558567651</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.105315</v>
+      </c>
+      <c r="H18">
+        <v>0.315945</v>
+      </c>
+      <c r="I18">
+        <v>0.2478185620962198</v>
+      </c>
+      <c r="J18">
+        <v>0.2612761094176664</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.1539196666666667</v>
+      </c>
+      <c r="N18">
+        <v>0.461759</v>
+      </c>
+      <c r="O18">
+        <v>0.03283406498956068</v>
+      </c>
+      <c r="P18">
+        <v>0.03458271552494378</v>
+      </c>
+      <c r="Q18">
+        <v>0.016210049695</v>
+      </c>
+      <c r="R18">
+        <v>0.145890447255</v>
+      </c>
+      <c r="S18">
+        <v>0.00813689077348676</v>
+      </c>
+      <c r="T18">
+        <v>0.009035637365455242</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.105315</v>
+      </c>
+      <c r="H19">
+        <v>0.315945</v>
+      </c>
+      <c r="I19">
+        <v>0.2478185620962198</v>
+      </c>
+      <c r="J19">
+        <v>0.2612761094176664</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.479631</v>
+      </c>
+      <c r="N19">
+        <v>0.9592620000000001</v>
+      </c>
+      <c r="O19">
+        <v>0.1023146409166339</v>
+      </c>
+      <c r="P19">
+        <v>0.0718424218258629</v>
+      </c>
+      <c r="Q19">
+        <v>0.050512338765</v>
+      </c>
+      <c r="R19">
+        <v>0.30307403259</v>
+      </c>
+      <c r="S19">
+        <v>0.02535546719335125</v>
+      </c>
+      <c r="T19">
+        <v>0.0187707084658043</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.06566649999999999</v>
+      </c>
+      <c r="H20">
+        <v>0.131333</v>
+      </c>
+      <c r="I20">
+        <v>0.1545209856895164</v>
+      </c>
+      <c r="J20">
+        <v>0.1086080655751804</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.5</v>
+      </c>
+      <c r="M20">
+        <v>0.2314755</v>
+      </c>
+      <c r="N20">
+        <v>0.462951</v>
+      </c>
+      <c r="O20">
+        <v>0.04937823590113708</v>
+      </c>
+      <c r="P20">
+        <v>0.0346719884939725</v>
+      </c>
+      <c r="Q20">
+        <v>0.01520018592075</v>
+      </c>
+      <c r="R20">
+        <v>0.06080074368299999</v>
+      </c>
+      <c r="S20">
+        <v>0.007629973683053166</v>
+      </c>
+      <c r="T20">
+        <v>0.003765657599975266</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.06566649999999999</v>
+      </c>
+      <c r="H21">
+        <v>0.131333</v>
+      </c>
+      <c r="I21">
+        <v>0.1545209856895164</v>
+      </c>
+      <c r="J21">
+        <v>0.1086080655751804</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M21">
+        <v>0.1888533333333333</v>
+      </c>
+      <c r="N21">
+        <v>0.56656</v>
+      </c>
+      <c r="O21">
+        <v>0.04028609699103969</v>
+      </c>
+      <c r="P21">
+        <v>0.04243162192358383</v>
+      </c>
+      <c r="Q21">
+        <v>0.01240133741333333</v>
+      </c>
+      <c r="R21">
+        <v>0.07440802447999999</v>
+      </c>
+      <c r="S21">
+        <v>0.006225047416638912</v>
+      </c>
+      <c r="T21">
+        <v>0.004608416376337856</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.06566649999999999</v>
+      </c>
+      <c r="H22">
+        <v>0.131333</v>
+      </c>
+      <c r="I22">
+        <v>0.1545209856895164</v>
+      </c>
+      <c r="J22">
+        <v>0.1086080655751804</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1.865619666666667</v>
+      </c>
+      <c r="N22">
+        <v>5.596859</v>
+      </c>
+      <c r="O22">
+        <v>0.3979730381939661</v>
+      </c>
+      <c r="P22">
+        <v>0.4191679699371779</v>
+      </c>
+      <c r="Q22">
+        <v>0.1225087138411666</v>
+      </c>
+      <c r="R22">
+        <v>0.7350522830469999</v>
+      </c>
+      <c r="S22">
+        <v>0.06149518613958318</v>
+      </c>
+      <c r="T22">
+        <v>0.04552502236595227</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.06566649999999999</v>
+      </c>
+      <c r="H23">
+        <v>0.131333</v>
+      </c>
+      <c r="I23">
+        <v>0.1545209856895164</v>
+      </c>
+      <c r="J23">
+        <v>0.1086080655751804</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1.768305</v>
+      </c>
+      <c r="N23">
+        <v>5.304914999999999</v>
+      </c>
+      <c r="O23">
+        <v>0.3772139230076625</v>
+      </c>
+      <c r="P23">
+        <v>0.397303282294459</v>
+      </c>
+      <c r="Q23">
+        <v>0.1161184002825</v>
+      </c>
+      <c r="R23">
+        <v>0.6967104016949998</v>
+      </c>
+      <c r="S23">
+        <v>0.05828746719895335</v>
+      </c>
+      <c r="T23">
+        <v>0.04315034093667102</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.06566649999999999</v>
+      </c>
+      <c r="H24">
+        <v>0.131333</v>
+      </c>
+      <c r="I24">
+        <v>0.1545209856895164</v>
+      </c>
+      <c r="J24">
+        <v>0.1086080655751804</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.1539196666666667</v>
+      </c>
+      <c r="N24">
+        <v>0.461759</v>
+      </c>
+      <c r="O24">
+        <v>0.03283406498956068</v>
+      </c>
+      <c r="P24">
+        <v>0.03458271552494378</v>
+      </c>
+      <c r="Q24">
+        <v>0.01010736579116667</v>
+      </c>
+      <c r="R24">
+        <v>0.060644194747</v>
+      </c>
+      <c r="S24">
+        <v>0.005073552086380556</v>
+      </c>
+      <c r="T24">
+        <v>0.003755961835500904</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.06566649999999999</v>
+      </c>
+      <c r="H25">
+        <v>0.131333</v>
+      </c>
+      <c r="I25">
+        <v>0.1545209856895164</v>
+      </c>
+      <c r="J25">
+        <v>0.1086080655751804</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.479631</v>
+      </c>
+      <c r="N25">
+        <v>0.9592620000000001</v>
+      </c>
+      <c r="O25">
+        <v>0.1023146409166339</v>
+      </c>
+      <c r="P25">
+        <v>0.0718424218258629</v>
+      </c>
+      <c r="Q25">
+        <v>0.0314956890615</v>
+      </c>
+      <c r="R25">
+        <v>0.125982756246</v>
+      </c>
+      <c r="S25">
+        <v>0.01580975916490718</v>
+      </c>
+      <c r="T25">
+        <v>0.007802666460743089</v>
       </c>
     </row>
   </sheetData>
